--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -91,12 +91,12 @@
     <t>better</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -109,10 +109,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>confidence</t>
   </si>
   <si>
     <t>help</t>
@@ -1060,25 +1060,25 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6623376623376623</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1086,25 +1086,25 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1216,25 +1216,25 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5501519756838906</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L22">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1242,25 +1242,25 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5428571428571428</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="10:17">
